--- a/biology/Médecine/Andreas_Gruentzig/Andreas_Gruentzig.xlsx
+++ b/biology/Médecine/Andreas_Gruentzig/Andreas_Gruentzig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Gruentzig est un cardiologue allemand né à Dresde (1939-1985). Inventeur et bricoleur de génie, il fit évoluer la cardiologie en développant l'angioplastie coronarienne à partir de 1976.
 </t>
@@ -511,9 +523,11 @@
           <t>Angioplastie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première dilatation par ballonnet d’un rétrécissement (sténose) d’une artère coronaire chez un patient éveillé a été effectuée par Gruentzig en septembre 1977 à l'hôpital universitaire de Zurich en Suisse. Gruentzig a présenté les résultats des premières quatre angioplasties en novembre 1977 lors du congrès de la American Heart Association (AHA), avec un fort écho mondial[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première dilatation par ballonnet d’un rétrécissement (sténose) d’une artère coronaire chez un patient éveillé a été effectuée par Gruentzig en septembre 1977 à l'hôpital universitaire de Zurich en Suisse. Gruentzig a présenté les résultats des premières quatre angioplasties en novembre 1977 lors du congrès de la American Heart Association (AHA), avec un fort écho mondial.
 Durant les années 1980, l’angioplastie transluminale a été acceptée comme alternative à la chirurgie de pontage aorto-coronarien dans des cas bien sélectionnés. L’utilisation des stents à partir de 1986 a amélioré cette technique de façon significative de sorte que les procédures non chirurgicales ont largement dépassé le nombre des pontages[réf. souhaitée].
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Mort accidentelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gruentzig et son épouse sont décédés lors d’un accident d’avion en Géorgie aux États-Unis en octobre 1985.
 </t>
